--- a/biology/Médecine/Gaston_Ferdière/Gaston_Ferdière.xlsx
+++ b/biology/Médecine/Gaston_Ferdière/Gaston_Ferdière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaston_Ferdi%C3%A8re</t>
+          <t>Gaston_Ferdière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston Ferdière (1907-1990) est un poète et médecin français, proche des surréalistes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaston_Ferdi%C3%A8re</t>
+          <t>Gaston_Ferdière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1935, il publia la première monographie de Jehan-Rictus à critiquer la légende misérabiliste que le poète s'était forgée. En août 1935, il part avec Théodore Fraenkel pour livrer aux républicains espagnols notamment le vaccin antitétanique de l'institut Pasteur et améliorer leur service de santé.
 Médecin, chef du service de psychiatrie de l'asile de Rodez où a été interné Antonin Artaud de 1943 à 1946, Gaston Ferdière a souvent été critiqué. À commencer par Artaud qui écrit de lui : « Le Dr Ferdière m’a imposé 50 fois en 3 ans les affres de l’électrochoc afin de me faire perdre la mémoire de mon moi qu’il trouvait beaucoup trop conscient. »
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaston_Ferdi%C3%A8re</t>
+          <t>Gaston_Ferdière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jehan-Rictus, son œuvre, Éditions de la Nouvelle Revue critique, 1935.
 L'Érotomanie, illusion délirante d'être aimé, Paris, G. Doin, 1937.
